--- a/dataset-150 - buat yang manual - dengan nama toko.xlsx
+++ b/dataset-150 - buat yang manual - dengan nama toko.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="dataset-150 - buat yang manual " sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="261">
   <si>
     <t>No</t>
   </si>
@@ -454,6 +454,365 @@
   </si>
   <si>
     <t>hasil akhir bagus kaya kulit kita tapi bersi yg sehat</t>
+  </si>
+  <si>
+    <t>Kecewa banget. Saya pesan yang free pouch tapi dikirimnya cotton pad. Kaget pas unboxing (untung di videokan), segera kabarin customer servicenya dan disuruh isi googleform untuk dikirimkan ulang pouchnya. Setelah 4 hari nggak ada kabar akhirnya saya tanya lagi, dan hanya dikabari kalau stock pouch ternyata sudah habis. Padahal baik-baik dan sabar ikutin prosedur dari customer service, karena masih berpikiran positif. Ternyata begini caranya ya.</t>
+  </si>
+  <si>
+    <t>Kali ini pengemasan tidak safe,, sepertinya tutup botol tidak kencang,, sehingga toner merembes keluar sampai dus basah,, saya memang tidak membuat video unboxing karna saya selalu mendapat produk dan packaging yg bagus dari avoskin.. saya kira dus basah karna hujan.. pas dibuka ternyata botol sudah kosong.. semoga mendapat tanggapan dari avoskin..</t>
+  </si>
+  <si>
+    <t>paket datangnya barang sudah pecah dan sy return ke seller. sudah ikuti komplain proses dan lain sebagainya.. tapi malah akhirnya tiba2 seakan - akan pesanan selesai, sy terima barang dan uangnya dilepas ke seller. sy kecewa sekali dan jd agak trauma untuk beli barang ksini. _x000D_
+chat seller untuk nanyain brg ud diterima, tp dijawab   formalitas saja.. baru kali ini sy belanja, brg tidak diterima tp uang tidak kembali.. mungkin uangnya ga seberapa, cuman krn responsnya yg mengecewakan ðŸ˜… _x000D_
+mohon improvement untuk selanjutnya.. thx.</t>
+  </si>
+  <si>
+    <t>ga ada sabun nya, ga sesuai deskripsi</t>
+  </si>
+  <si>
+    <t>ga sesuai harapan</t>
+  </si>
+  <si>
+    <t>bagus bgt buat kulit oily, menghikangkan bruntusan dan mengecilkan pori.</t>
+  </si>
+  <si>
+    <t>gak perlu diragukan lagi sih ini produk, worth to buy. _x000D_
+pengiriman cepat &amp; packagingnya yg super aman. thx seller.</t>
+  </si>
+  <si>
+    <t>barang diterima dg baik dan expired la 02.2025</t>
+  </si>
+  <si>
+    <t>bru nyoba</t>
+  </si>
+  <si>
+    <t>mudah-mudahan cocok karena reviewnya bagus</t>
+  </si>
+  <si>
+    <t>Mantap</t>
+  </si>
+  <si>
+    <t>bismillah smga cocok .</t>
+  </si>
+  <si>
+    <t>KECEWA BANGET POKOKNYA!!!!ðŸ˜­ðŸ˜­ðŸ˜­</t>
+  </si>
+  <si>
+    <t>Kecewaaaaa, pengiriman lama, wajah jadi breakout gatau harus gimana lagi ga ngertiðŸ˜­ðŸ˜­ðŸ˜­ðŸ˜­</t>
+  </si>
+  <si>
+    <t>ok smoga cocok</t>
+  </si>
+  <si>
+    <t>ok.blom dcobain</t>
+  </si>
+  <si>
+    <t>udah langganan karna cocok pakai serum ini. thanks seller</t>
+  </si>
+  <si>
+    <t>Serumnya bener bener cair banget, ini pemakaian selama 7 hari, tapi belum berasa bangt efeknya</t>
+  </si>
+  <si>
+    <t>Mantab pake banget tp perjalanan pengiriman lam bgt</t>
+  </si>
+  <si>
+    <t>belum dicoba ngabisin dlu yg laen, next bakal review klo ada hasilnya</t>
+  </si>
+  <si>
+    <t>cocok bngt buat oily skin kyk aku</t>
+  </si>
+  <si>
+    <t>baru sekali pake udh kerasa halus dimuka..</t>
+  </si>
+  <si>
+    <t>Barangnya gapernah sampe dari tanggal 1 karna ilang kesalahan ANTERAJA. Jadi gatau harus review apa.</t>
+  </si>
+  <si>
+    <t>Beli ini beserta skin care yg lain nya tapitidak pernah menerima sheet mask ini. Complaint lama banget dan ujung ujung nya tidak bisa ditindak lanjuti. Kecewa banget.</t>
+  </si>
+  <si>
+    <t>harusnya dpt free sesuai jam ordernya.. udah buru2 cekout biar ga habis pesenan... eh yg dtg cuma produk nya, free nya ga dapat... Asli kecewa dan baru ngalamin yg ginian ðŸ¥²</t>
+  </si>
+  <si>
+    <t>melembabkan banget, teksturnya kental tp cepet banget nyerepnya</t>
+  </si>
+  <si>
+    <t>Packaging nya jelek banget, ini sih kyk nya ad oknum yg mau ngambil barangnya, kardusnya di buka di bagian samping yg ga di segel.. tolong next nya packing lbh baik lagi</t>
+  </si>
+  <si>
+    <t>Tertipu, tidak ada gratis hadiah sarung seperti di gambar</t>
+  </si>
+  <si>
+    <t>Dijanjikan expired 1-2 th tapi dapetnyabulan 11.2022</t>
+  </si>
+  <si>
+    <t>pesen 3 masker yang dikirim 1. my bad ga di video unboxing nya. Tapi kecewa banget bisa lalai bgt team packing nya. please kerja yg fokus dan bener biar customer ga dirugikan begini. Ga semua orang sempet bikin video unboxing begitu. so sorry kasih bintang 1 karna beneran kecewa. buat customer yang lain kalo baca ini, please be more careful ya kalo pesen disini, sesibuk apapun sempetin video unboxing!!!</t>
+  </si>
+  <si>
+    <t>bahan ringan. smg cocok</t>
+  </si>
+  <si>
+    <t>ringan bgt dibibir lup lup dh bwt azarine ðŸ«¶ðŸ«¶ðŸ«¶</t>
+  </si>
+  <si>
+    <t>No review found</t>
+  </si>
+  <si>
+    <t>Kali ini paket white series yg dtng cmn 2, harusnya 3. Udh komplain tpi ngga direspon samsek. Pantes didalam paket ada kertas cara ngajuin komplain, trnyata emng ga beres isinya.</t>
+  </si>
+  <si>
+    <t>tidak sampai barang nya</t>
+  </si>
+  <si>
+    <t>Bikin bruntusan yg geleuh muka jadi keliatan dan kerasa kotor bgt ewh. Udh pake sunscreen dan toner yg soft light gitu. No deh, bener kata org2 ini buat kulit sensitif dan kering jangan pake. Akhirnya buat tangan dan area tubuh yg gelap aja deh :(</t>
+  </si>
+  <si>
+    <t>serumnya ga dikirim</t>
+  </si>
+  <si>
+    <t>Baru pertama coba, dan udah dipake beberapa hari, sunscreennya bagus banget cocok buat acne face kuu! ga lengket sama sekaliðŸ’š</t>
+  </si>
+  <si>
+    <t>love banget makasih azarine, tadinya beli karena dapet pc tapi ternyata emang bagus banget velvety lippie cream nyaa, dan walau ga cocok warm tone ,ini bagus banget di akuuðŸ¥°</t>
+  </si>
+  <si>
+    <t>Pertama kali coba elum tau si</t>
+  </si>
+  <si>
+    <t>realpict sukses selalu seller</t>
+  </si>
+  <si>
+    <t>smuaa ok, cuma ky nya kulitku yg ga cocok sm sunscreennya. ngerasa lengket bgt makenya ðŸ™ðŸ¼ðŸ¥¹ so sorry</t>
+  </si>
+  <si>
+    <t>baru pertama coba semoga cocok, pengemasan cepat dan aman, pengiriman cepat</t>
+  </si>
+  <si>
+    <t>Saya pesen dua paket, 1 twin pack dan 1 lg yg ini. Harusanya saya terima 3 produk, tp saya hanya terima 2. Saya tidak sempat melakukan video unboxing, jd td bisa klaim. Mohon untuk setelahnya lbh berhati2 dan memperhatikan produk yg akan dikirim. Apa sudah sesuai dgn pesanan atau blm.</t>
+  </si>
+  <si>
+    <t>PELAYANAN ADMIN NYA JELEK</t>
+  </si>
+  <si>
+    <t>agak kesel ya aku udah nunggu barangnya dan yang dateng salah dong produknya. mana di bungkusnya sesuai sama produk yang aku pesen. alhasil aku buka tanpa di video. Tolong banget kalau semisal packing, di cek dulu, jangan salah kirim kaya gini. Selain rugi di harga. Aku juga jadi kehilangan kepercayaan sama ini toko. mana lama juga... mana ini fotonya ga bisa dilampirkan pula. ada tulisan ada gangguan di rumah toped. Gatau deh serah. di cek aja di data gudang, seharusnya data pembelian dan produk yang ada di gudang jumlahnya beda</t>
+  </si>
+  <si>
+    <t>barang yang dikirim cuman 1 harusnya 2 karena saya beli twin pack</t>
+  </si>
+  <si>
+    <t>saya sudah pake 3 harian , di wajah saya jadi berminyak, merah dan jadi beruntusan...</t>
+  </si>
+  <si>
+    <t>tipe kulitku berminyak masalah kulitku jerawat masalah kulitku pori besar</t>
+  </si>
+  <si>
+    <t>agak kecewa sm pengemasannya. kardusnya peyok dalemnya gak ada bubble wrap biasanya ada bubble wrap nya. untung paketnya aman</t>
+  </si>
+  <si>
+    <t>ini pertama kalinya saya tidak menerima barang pesanan saya secara lengkap. sayangnya, saya tidak melakukan video unboxing.</t>
+  </si>
+  <si>
+    <t>Beli tgl 4 mei, chat admin katanya tgl 9 bisa dikirim, tp sampai sudah mau batal otomatis baru dikirim, sampe di rmh tgl 16 malem, pdhal mau dibawa ke luar kota tgl 14 mei, krn melihat status ga dikirim2, akhirnya beli sama reseller di jakarta, kecewa baru pertama kali pesan di official store tp pelayanan buruk dan pengiriman lama. Barang yg dikirim sesuai hanya tdk ada box atau bubble wrap. Kalo yg butuh cepat tolong pertimbangkan utk beli di official store!!</t>
+  </si>
+  <si>
+    <t>udahlah prosesnya lama bgt, yg dikirim gk lengkap juga. bilang dong kalo brgnya kosong. gk bisa kasih review krn saya gak terima barang ini.</t>
+  </si>
+  <si>
+    <t>saya kira membeli dari toko official bisa dapat pengemasan lebih baik.  saya. terima kondisi kotak kemasan prpduk terbuka. dan saya  tanya chat penjual tdk direspond dg cepat.. tidak ada isi yg tumpah. cm berharap kotak  kemasan dr azarine bs lebih baik lg.  saya bs krm video unboxing</t>
+  </si>
+  <si>
+    <t>tiap belanja pasti salah.. klo ga kurang barangnya ya salah barangnya.. ikhlasin aja semoga berkah.. kalo produknya cocok  _x000D_
+pelayanan nya aja kurang.. atau butuh karyawan</t>
+  </si>
+  <si>
+    <t>pelayanannya jelek bgt</t>
+  </si>
+  <si>
+    <t>exp panjang. Thx</t>
+  </si>
+  <si>
+    <t>dapet tekstur sudah keras dan menggumpal</t>
+  </si>
+  <si>
+    <t>diterima dalam keaadan bocor seperti bekas lubang paku jd isinya tumpah, jadi aku lem biar isinya gak tumpah_x000D_
+baru pertama belanja disini malah kecewa padahal official store_x000D_
+malas aja mau complain, ntar lama lagi prosesnya</t>
+  </si>
+  <si>
+    <t>teksturnya kental banget. di aku kurang ngefek sih. probably ga beli lagi</t>
+  </si>
+  <si>
+    <t>Botol semprotnya suka ngawur arahnya</t>
+  </si>
+  <si>
+    <t>produk baguss sering repurchase, tapi suka kesel sama pumpnya , isi masi banyak tapi gk kluar di pump2 ,susah kali pump nya</t>
+  </si>
+  <si>
+    <t>Udah sering pake ini, isinya banyak dan bahannya ga neko2 fkus melembabkan</t>
+  </si>
+  <si>
+    <t>Tekstur Ringan! Pengiriman Cepat</t>
+  </si>
+  <si>
+    <t>respon toko nya cepet dan ramah. belum dicoba, mudah mudahan cocok</t>
+  </si>
+  <si>
+    <t>Sdh langganan sll beli disiniðŸ‘ðŸ»</t>
+  </si>
+  <si>
+    <t>Tutup pumpnya gak bisa berfungsi. Tp ok gentle bgt washnya</t>
+  </si>
+  <si>
+    <t>fw enak sih dipake nya, terus byk busa nya jd pake sedikit aja tuh udah bisa full semuka ampe ke leher &amp; cocok bgt buat kulitku yang sensitif</t>
+  </si>
+  <si>
+    <t>Material bagus, packaging aman ga bocor. tekstur gel langsung meresap, aman dari fragrance, packaging pump juga hygenis. semoga kulit sensitif saya cocok. Terimakasih ya</t>
+  </si>
+  <si>
+    <t>bagus, pasti RO</t>
+  </si>
+  <si>
+    <t>Baguus bagus cocok</t>
+  </si>
+  <si>
+    <t>Dapet bonus ðŸ˜ðŸ‘ŒðŸ‘</t>
+  </si>
+  <si>
+    <t>Dikasi free gift jg, keren2..</t>
+  </si>
+  <si>
+    <t>Sebenernya aku suka banget produknya! Meresapnya cepat banget ke kulit, ga lengket dan greasy, nyaman, daan kebetulan cocok karena bekas jerawatku emang jadi lebih memudar (tidak 100% hilang begitu saja dan tentunya butuh prosesnya ya bestie~), TAPIII yang menurutku skin game harus perhatikan lagi adalah pemilihan packaging. Pump-nya agak keras, lalu produk yang keluar malah jadi â€œloncatâ€ dan banyak terbuang (entah di leher botol atau terjun bebas). Sedih hiks. Mungkin jika ada konsiderasi untuk improve pump-nya, aku akan kasih âœ¨bintang 5âœ¨ hehehe.</t>
+  </si>
+  <si>
+    <t>Maaf banget tp ini susah banget diratainnya dan whitecast parah. Bikin kulit jadi kering banget</t>
+  </si>
+  <si>
+    <t>warna nya kuning, entah karena apa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abis pake ini besokannya langsung muncul banyak jerawat2 kecil ðŸ˜­ðŸ˜­ </t>
+  </si>
+  <si>
+    <t>Isinya berantakan</t>
+  </si>
+  <si>
+    <t>bikin aku jerawatan :(</t>
+  </si>
+  <si>
+    <t>Mantap ðŸ‘</t>
+  </si>
+  <si>
+    <t>Produk belum dicoba. Pengiriman tidak menggunakan bubble wrap hanya produk dan kotak pengiriman. saat dibuka botol terasa panas mungkin krn tidak di lapisi bubble wrap jadi langsung terpapar sinar matahari saat pengiriman semoga produk masi efektif kandungannya.</t>
+  </si>
+  <si>
+    <t>selangnya sependek apa sih sampe dia ilang kebawah???? wtf annoying bgt pakenya gmn coba. udah aku cari tp gak ada selangnya. pake tube ajalah kalo pake packaging kaya gini bermasalah mulu. sayang bgt padahal formulanya sebagus itu, tapi kalo packagingnya begini sihhh big no deh.</t>
+  </si>
+  <si>
+    <t>Ini parah banget seller dan pengiriman kurir. UDAH LAMA BANGET KIRIMNYA. Plus waktu sampai dibuka paketnya rusak! Gajelas ini seller tidak professional dan tidak niat jualan sama sekali. Meskipun official store. Tolong hargai customer dengan dapat membungkus paket dengan baik dan benar!!!</t>
+  </si>
+  <si>
+    <t>Untuk packaging suka bangettt dan pengeriman juga cepat, cuman sorry bgt kykny memang ga cocok di aku kyk lgsg jerawatan besarâ€ gitu:(</t>
+  </si>
+  <si>
+    <t>Warnanya kuning (kiri) padahal baru dibuka. Punya saya sudah pemakaian 6 bulan (kanan) masih bening.</t>
+  </si>
+  <si>
+    <t>Bener2 jadi geprek gak pake bubble wrap sama sekali hancur semua:(((</t>
+  </si>
+  <si>
+    <t>belum coba pertama kali beli, semoga cocok :)_x000D_
+_x000D_
+bintang 5 ini diberikan untuk respon admin dan pengantaran pesanan yg baik dan cepat</t>
+  </si>
+  <si>
+    <t>Fast response, on time delivery</t>
+  </si>
+  <si>
+    <t>blm.coba.semoga cocok</t>
+  </si>
+  <si>
+    <t>semoga cocok n makasih bonusnya</t>
+  </si>
+  <si>
+    <t>barang tidak saya terima sampai sekarang,kurir ditanya balesnya lama.karna pengiriman dipindahtangankan sama kurir pertama,kecewa saya pdhal alamat sudah sesuai.dan g biasanya begini,tolong kak dikomplain bagian ekspedisi pengirimannya.trimakasih</t>
+  </si>
+  <si>
+    <t>Engga cocok mukaku tambah jerawat parah</t>
+  </si>
+  <si>
+    <t>hadiahnya bohongan</t>
+  </si>
+  <si>
+    <t>bohong</t>
+  </si>
+  <si>
+    <t>baru mau coba, semoga cocok tipe kulitku kombinasi masalah kulitku jerawat</t>
+  </si>
+  <si>
+    <t>okeee</t>
+  </si>
+  <si>
+    <t>tipe kulitku kering tipe kulitku normal</t>
+  </si>
+  <si>
+    <t>Pertama kali nyobain. Dgn warna kulit saya yg cenderung agak gelap awalnya saya pikir bakal jomplang pas dipake, tp ternyata blend bgt ma kulit warnanya. Jd agak lbh cerah tp bukan jd tone up jg. Teksturnya ky foundy cair, cpt nyerap. Awalnya ky mate pas udah kering tp lama2 jd glow up ðŸ‘ðŸ¼</t>
+  </si>
+  <si>
+    <t>Kynya udah botol ke 5 apa 6 gt. Secocok itu dikulit saya yg normal cenderung kering. Enaknya krn ga ada white cast ato tone up. Jd ga berasa cemong dikulit saya yg putih.</t>
+  </si>
+  <si>
+    <t>Botol kedua ðŸ‘ðŸ¼. Enak dikulit, gampang menyerap. Ga ada masalah ke kulitnya. Mantap</t>
+  </si>
+  <si>
+    <t>2 produk tp beda isi cairannya, cs ditanya ga membantu, bertele tele</t>
+  </si>
+  <si>
+    <t>Kecewa karena isi tidak full seperti saya beli di tempat lain</t>
+  </si>
+  <si>
+    <t>Terpaksa kasi penilaian jelek untuk admin Al, El, Ve yang handle chat karena balasnya asal dan tidak menjawab konsultasi customer dengan baik. Pertanyan dan jawabannya tidak sesuai. Asal balas tanpa membaca permasalahan pembeli</t>
+  </si>
+  <si>
+    <t>Baru coba_x000D_
+Semoga cocok_x000D_
+Recommended seller</t>
+  </si>
+  <si>
+    <t>Pertama kali nyoba tinted sunscreen, mudah2an cocok dan gak oksidasi sesuai klaimnya. Packing aman kardus ditambah bubble wrap tebel. Mantappp</t>
+  </si>
+  <si>
+    <t>pesan barang 2 paket lengkap.. yg dtg hanya 1 paket..</t>
+  </si>
+  <si>
+    <t>lebih baik Sabtu Minggu tetap di proses, walau kirim nya weekday. padahal online, gak tahu real or Chat bot. bikin insecure</t>
+  </si>
+  <si>
+    <t>lemot responnya</t>
+  </si>
+  <si>
+    <t>wtf pas buka tutupnya ternyata yg keputer malah ke tempat moisturizernya. langsung tumpah setengah.</t>
+  </si>
+  <si>
+    <t>isi tidak sesuai</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>well received thanks</t>
+  </si>
+  <si>
+    <t>Barang sampai dengan aman. Cuma di aku agak ke abu2an dikit, tp masih bisa ditoleransi. Thx ya</t>
+  </si>
+  <si>
+    <t>Produknya biasa saja, tapi yg paling parah, Pelayanannya sangat tidak memuaskan,ðŸ‘ŽðŸ‘ŽðŸ‘ŽðŸ‘ŽðŸ‘Ž.      _x000D_
+ tidak helpfull, tidak customer oriented, hatiÂ² kalau belanja disini, kesalahan sedikit saja, bakal fatal ðŸ¤¬</t>
+  </si>
+  <si>
+    <t>katanya check out jam 6 dapet Lm 0,1 taunya engga..boohong banget.. buat yang mau check out jangan percaya ya</t>
+  </si>
+  <si>
+    <t>kecewa pesanan saya dibatalkan yang lain, tidak akan pernah mau beli lagi, terimakasih. alasan saya beli di toko ini adalah, karna harga dari pusat normal, sedangkan beli di reseller harga melambung jauh, sampe 200rb. kecewa udh ganti produk eye care lain makasih. saya beli 5 tetapi dibatalkan sama somethinc, jahat bgt pesannya pake usaha juga, kalau tidak beli eye game changer ini di sini, mau beli dmn lagi, di stockist harganya beda 40rb-50rb makasih; belum lagi kadang pre order, sungguh kecewa, saya beli di official mana pun bs beli banyak,makasih.</t>
   </si>
 </sst>
 </file>
@@ -961,12 +1320,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1288,10 +1651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G151"/>
+  <dimension ref="A1:I271"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1299,7 +1662,7 @@
     <col min="2" max="2" width="34.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1310,7 +1673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1321,7 +1684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1332,7 +1695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1348,8 +1711,15 @@
       <c r="G4">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="I4">
+        <f>SUM(G4,H4)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1365,8 +1735,15 @@
       <c r="G5">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>30</v>
+      </c>
+      <c r="I5">
+        <f>SUM(G5,H5)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1382,8 +1759,15 @@
       <c r="G6">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="I6">
+        <f>SUM(G6,H6)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1399,8 +1783,15 @@
       <c r="G7">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="I7">
+        <f>SUM(G7,H7)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1413,8 +1804,12 @@
       <c r="G8">
         <v>150</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <f>SUM(I4:I7)</f>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1425,7 +1820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1436,7 +1831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1447,7 +1842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1458,7 +1853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1469,7 +1864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1480,7 +1875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1491,7 +1886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2984,6 +3379,1326 @@
         <v>144</v>
       </c>
       <c r="C151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C157" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C158" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C159" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C160" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C161" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C162" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C163" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C166" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C167" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C168" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C169" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C170" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C171" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C172" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C173" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C174" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C177" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C178" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C182" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C183" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C184" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C185" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C186" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C187" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C188" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C190" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C191" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C192" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C193" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C194" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C195" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C196" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C197" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C198" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C200" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C201" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C202" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C204" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C205" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C206" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C207" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C208" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C209" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C210" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C211" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C212" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C213" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C214" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C215" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C216" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C217" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C218" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C219" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C220" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C221" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C222" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C223" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C224" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C225" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C226" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C227" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C228" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C229" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C230" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C231" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C232" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C233" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C234" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C235" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C236" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C237" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C238" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C239" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C240" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C241" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C242" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C243" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C244" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C245" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C246" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C247" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C248" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C249" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C250" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C251" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C252" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C253" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C254" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C255" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C256" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C257" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C258" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C259" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C260" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C261" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C262" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C263" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C264" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C265" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C266" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C267" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C268" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>268</v>
+      </c>
+      <c r="B269" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C269" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>269</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C270" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C271" t="s">
         <v>8</v>
       </c>
     </row>
